--- a/data/trans_orig/P79_n_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R3-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10365</v>
+        <v>10369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007126644019502913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001806862292632999</v>
+        <v>0.001819796228443105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01791679367939391</v>
+        <v>0.01792238288466872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>8577</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4559</v>
+        <v>4927</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14122</v>
+        <v>14399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01043407110795166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005546025022594828</v>
+        <v>0.005993971561435176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01717918395758953</v>
+        <v>0.01751567561204195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -783,19 +783,19 @@
         <v>12700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7408</v>
+        <v>7864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20449</v>
+        <v>20039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009067879076698312</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005289506447540029</v>
+        <v>0.005614529197885243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01460068305454169</v>
+        <v>0.01430746737944226</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>38745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28593</v>
+        <v>28103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52554</v>
+        <v>52386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0669721005556408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04942439210223858</v>
+        <v>0.04857620021900162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09084023017874844</v>
+        <v>0.09054949292125286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -833,19 +833,19 @@
         <v>48939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38512</v>
+        <v>38157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60955</v>
+        <v>60101</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05953334660068355</v>
+        <v>0.05953334660068357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04684899425225812</v>
+        <v>0.04641709524171588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07415165029766628</v>
+        <v>0.07311176462782218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -854,19 +854,19 @@
         <v>87684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71036</v>
+        <v>72553</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105040</v>
+        <v>103186</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06260605723161798</v>
+        <v>0.06260605723161797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05071940518347445</v>
+        <v>0.05180237924744487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07499828850251454</v>
+        <v>0.07367417826481815</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>69527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56124</v>
+        <v>55150</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88232</v>
+        <v>87315</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.120178521971901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09701093444288693</v>
+        <v>0.09532763932293865</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1525117381207966</v>
+        <v>0.1509255571281999</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -904,19 +904,19 @@
         <v>111956</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>95969</v>
+        <v>97009</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128013</v>
+        <v>128915</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1361936901110876</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1167449441796982</v>
+        <v>0.1180105232835051</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1557259567284267</v>
+        <v>0.15682348476885</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>249</v>
@@ -925,19 +925,19 @@
         <v>181483</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>158975</v>
+        <v>160499</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206546</v>
+        <v>205872</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1295783379035197</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1135073650425036</v>
+        <v>0.1145954579829235</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1474733652368186</v>
+        <v>0.1469916251360269</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>466134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>445185</v>
+        <v>447198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>482999</v>
+        <v>484289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8057227334529553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7695123904644943</v>
+        <v>0.7729907898364742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8348748395790548</v>
+        <v>0.8371038554698862</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1166</v>
@@ -975,19 +975,19 @@
         <v>652566</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>634979</v>
+        <v>634599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>670549</v>
+        <v>670383</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7938388921802771</v>
+        <v>0.7938388921802774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7724449135237504</v>
+        <v>0.7719821582840682</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8157155162505106</v>
+        <v>0.8155128707271627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1734</v>
@@ -996,19 +996,19 @@
         <v>1118700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1088049</v>
+        <v>1089844</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1143556</v>
+        <v>1142557</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7987477257881641</v>
+        <v>0.7987477257881639</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.776863518677442</v>
+        <v>0.7781451971157407</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8164949549285681</v>
+        <v>0.8157820104035317</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>18277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9587</v>
+        <v>10197</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31031</v>
+        <v>31147</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008194081632301169</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004297947704457558</v>
+        <v>0.004571573635272507</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01391166096946169</v>
+        <v>0.01396365784732214</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1121,19 +1121,19 @@
         <v>11344</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5823</v>
+        <v>5713</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21395</v>
+        <v>22701</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.00522442356520738</v>
+        <v>0.005224423565207378</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002681749183799509</v>
+        <v>0.002631196636902702</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009853199657325435</v>
+        <v>0.01045449768637247</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -1142,19 +1142,19 @@
         <v>29622</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19745</v>
+        <v>19003</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>46694</v>
+        <v>45441</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.006729212714956121</v>
+        <v>0.006729212714956122</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004485565996337282</v>
+        <v>0.004316884788231397</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01060761137504005</v>
+        <v>0.01032279103524754</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>76165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58721</v>
+        <v>58892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96716</v>
+        <v>96676</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03414600370678114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02632569404556264</v>
+        <v>0.02640236523004276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04335941190112539</v>
+        <v>0.04334136227669988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -1192,19 +1192,19 @@
         <v>73763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59331</v>
+        <v>57850</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94925</v>
+        <v>93144</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03397059839834867</v>
+        <v>0.03397059839834866</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02732386388728813</v>
+        <v>0.02664187611711878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04371636993274559</v>
+        <v>0.04289600267843535</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1213,19 +1213,19 @@
         <v>149928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126395</v>
+        <v>127222</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179042</v>
+        <v>177687</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03405948001332726</v>
+        <v>0.03405948001332727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02871334856458519</v>
+        <v>0.02890112209517407</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04067332882646994</v>
+        <v>0.0403655163828455</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>232991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>202617</v>
+        <v>202792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266748</v>
+        <v>267794</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1044538057256349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09083653394315254</v>
+        <v>0.09091516141430299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1195875683159997</v>
+        <v>0.120056471537363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>259</v>
@@ -1263,19 +1263,19 @@
         <v>217861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>191093</v>
+        <v>192646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245135</v>
+        <v>247151</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1003325743297863</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08800479797077107</v>
+        <v>0.08871995346855673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1128931187699348</v>
+        <v>0.1138216269859241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>459</v>
@@ -1284,19 +1284,19 @@
         <v>450853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>408843</v>
+        <v>409200</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>494933</v>
+        <v>491415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1024208902732262</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09287758285524049</v>
+        <v>0.09295865973147309</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1124346215635404</v>
+        <v>0.1116354350007653</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1903133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1864256</v>
+        <v>1864580</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1940122</v>
+        <v>1939083</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8532061089352829</v>
+        <v>0.8532061089352828</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8357771876818841</v>
+        <v>0.8359223212659356</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8697893224130629</v>
+        <v>0.8693232001367606</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2571</v>
@@ -1334,19 +1334,19 @@
         <v>1868423</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1837692</v>
+        <v>1833063</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1899541</v>
+        <v>1898883</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8604724037066577</v>
+        <v>0.8604724037066575</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8463197216025534</v>
+        <v>0.8441878632719241</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8748033332154153</v>
+        <v>0.8745002042024687</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4281</v>
@@ -1355,19 +1355,19 @@
         <v>3771556</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3724187</v>
+        <v>3724351</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3820319</v>
+        <v>3822359</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8567904169984903</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8460294554808164</v>
+        <v>0.8460666173268303</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8678678128384529</v>
+        <v>0.8683312935580922</v>
       </c>
     </row>
     <row r="13">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6748</v>
+        <v>5774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001587450952653049</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009483157624725194</v>
+        <v>0.008114923715232593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5137</v>
+        <v>5054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001992710027158574</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006990458351166992</v>
+        <v>0.006877701382075335</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1501,19 +1501,19 @@
         <v>2594</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7433</v>
+        <v>7506</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001793343130055747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0004921297253534653</v>
+        <v>0.0004851248394104833</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005138992347746899</v>
+        <v>0.005189233707126645</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>8243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3551</v>
+        <v>3451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16294</v>
+        <v>15366</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01158351062223216</v>
+        <v>0.01158351062223215</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004990188187014086</v>
+        <v>0.004849801901466822</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0228979482914084</v>
+        <v>0.02159463099472324</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1551,19 +1551,19 @@
         <v>7106</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3451</v>
+        <v>3698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13917</v>
+        <v>13417</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.009669370768610575</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.004696014711615679</v>
+        <v>0.005032142589023792</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01893738080749566</v>
+        <v>0.01825788589336137</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -1572,19 +1572,19 @@
         <v>15348</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8719</v>
+        <v>9159</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24733</v>
+        <v>24888</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01061103043089703</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.006027586908714582</v>
+        <v>0.006331768726221718</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01709863008174257</v>
+        <v>0.01720583848727207</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>31987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20821</v>
+        <v>21907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46437</v>
+        <v>48191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04495167258556464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02926021207124917</v>
+        <v>0.03078547467941435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06525837178299981</v>
+        <v>0.06772375791064252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1622,19 +1622,19 @@
         <v>37824</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28174</v>
+        <v>27765</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51597</v>
+        <v>49625</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05147044976912235</v>
+        <v>0.05147044976912236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03833892660568209</v>
+        <v>0.0377814710817954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07021232905505098</v>
+        <v>0.06752784255464116</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1643,19 +1643,19 @@
         <v>69811</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54486</v>
+        <v>55414</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89158</v>
+        <v>89253</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04826354223330384</v>
+        <v>0.04826354223330383</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03766818240350459</v>
+        <v>0.03830967740933735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06163850246160275</v>
+        <v>0.06170458576858216</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>670228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>654185</v>
+        <v>653610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>682753</v>
+        <v>682522</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9418773658395503</v>
+        <v>0.9418773658395501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9193321118860347</v>
+        <v>0.918523886165968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9594787490976211</v>
+        <v>0.9591547904899319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>949</v>
@@ -1693,19 +1693,19 @@
         <v>688482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>674736</v>
+        <v>676425</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>699668</v>
+        <v>699544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9368674694351083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9181621380938285</v>
+        <v>0.9204604615072629</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9520882310707131</v>
+        <v>0.9519202224906397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1594</v>
@@ -1714,19 +1714,19 @@
         <v>1358710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1338674</v>
+        <v>1336850</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1375480</v>
+        <v>1375495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9393320842057433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9254804989847831</v>
+        <v>0.9242192391508723</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9509260530907627</v>
+        <v>0.9509365594937261</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>23530</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13937</v>
+        <v>14208</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37358</v>
+        <v>38010</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00668336988995087</v>
+        <v>0.006683369889950871</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003958676696155771</v>
+        <v>0.004035555640844702</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01061114197359288</v>
+        <v>0.01079634212493106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1839,19 +1839,19 @@
         <v>21386</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13827</v>
+        <v>14179</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33702</v>
+        <v>33121</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00573608060506576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003708592033666221</v>
+        <v>0.003803080785053314</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009039567688965664</v>
+        <v>0.008883560656673369</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1860,19 +1860,19 @@
         <v>44916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32906</v>
+        <v>31621</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62586</v>
+        <v>62012</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.006196159189108375</v>
+        <v>0.006196159189108376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004539419794985871</v>
+        <v>0.004362162302703425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008633775291905715</v>
+        <v>0.008554608539415155</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>123153</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102772</v>
+        <v>102656</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150420</v>
+        <v>148000</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03497984336389467</v>
+        <v>0.03497984336389468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0291909109215846</v>
+        <v>0.02915788517526362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04272458725857643</v>
+        <v>0.0420373481574005</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>164</v>
@@ -1910,19 +1910,19 @@
         <v>129808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111283</v>
+        <v>111263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153637</v>
+        <v>154925</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03481686090847118</v>
+        <v>0.03481686090847119</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02984814782657577</v>
+        <v>0.02984281177955746</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04120819273011345</v>
+        <v>0.04155369861572877</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>282</v>
@@ -1931,19 +1931,19 @@
         <v>252961</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>221031</v>
+        <v>224503</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283926</v>
+        <v>289630</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03489601807673169</v>
+        <v>0.03489601807673171</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03049133055351043</v>
+        <v>0.030970292602478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03916761208242116</v>
+        <v>0.03995456501544596</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>334505</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>294763</v>
+        <v>296275</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>372478</v>
+        <v>373440</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09501139414753923</v>
+        <v>0.09501139414753924</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08372327587715059</v>
+        <v>0.08415283973093778</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1057971183830052</v>
+        <v>0.1060701987080126</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>476</v>
@@ -1981,19 +1981,19 @@
         <v>367642</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>334727</v>
+        <v>335925</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>401278</v>
+        <v>403222</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09860834127987748</v>
+        <v>0.0986083412798775</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08977984886481391</v>
+        <v>0.090101118123515</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1076299762343078</v>
+        <v>0.1081514635213073</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>780</v>
@@ -2002,19 +2002,19 @@
         <v>702147</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>649677</v>
+        <v>652944</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>756749</v>
+        <v>757306</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09686137932229233</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08962308684501261</v>
+        <v>0.09007378019235021</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1043937825453461</v>
+        <v>0.1044705610565548</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>3039495</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2994335</v>
+        <v>2992691</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3084478</v>
+        <v>3082191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8633253925986152</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8504983914443934</v>
+        <v>0.8500314397629839</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.876102302664129</v>
+        <v>0.8754525921053202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4686</v>
@@ -2052,19 +2052,19 @@
         <v>3209471</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3170848</v>
+        <v>3170834</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3248468</v>
+        <v>3247919</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8608387172065856</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8504793789133307</v>
+        <v>0.8504756150832561</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8712983766510087</v>
+        <v>0.8711512617302554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7609</v>
@@ -2073,19 +2073,19 @@
         <v>6248966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6185002</v>
+        <v>6187224</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6311318</v>
+        <v>6311236</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8620464434118675</v>
+        <v>0.8620464434118676</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8532225816509618</v>
+        <v>0.8535291450209564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.870647894151248</v>
+        <v>0.8706366193579078</v>
       </c>
     </row>
     <row r="23">
